--- a/quantifySelf/data/fb_2016_clean_graphs.xlsx
+++ b/quantifySelf/data/fb_2016_clean_graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="13520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="fb_2016_clean" sheetId="1" r:id="rId1"/>
@@ -104,21 +104,1195 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDCDCDC"/>
+      <color rgb="FFFDC381"/>
+      <color rgb="FF99C1DC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fb_2016_clean!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Steps</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FDC381"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>fb_2016_clean!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>42506.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42537.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42567.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42598.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42629.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42659.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42690.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42720.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42752.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fb_2016_clean!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>320668.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>327143.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>349923.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>317452.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>322395.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>311744.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>229936.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>241561.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>265895.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1204092176"/>
+        <c:axId val="1204092704"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fb_2016_clean!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Minutes Asleep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="99C1DC"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>fb_2016_clean!$K$2:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8873.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9779.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12827.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13318.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13155.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11944.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9428.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12457.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10215.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1203728976"/>
+        <c:axId val="1203720464"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1204092176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="yy\-mmm" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204092704"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1204092704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="DCDCDC"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> of Steps</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1204092176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1203720464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Minutes</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> Asleep</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1203728976"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1203728976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1203720464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>305816</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63752</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,7 +1560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -436,353 +1612,353 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>42871</v>
-      </c>
-      <c r="B2">
+        <v>42506</v>
+      </c>
+      <c r="B2" s="2">
         <v>58327</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>320668</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>135</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>28952</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>4290</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>627</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>1458</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>24309</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>8873</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>411</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <v>35</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>9292</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>42902</v>
-      </c>
-      <c r="B3">
+        <v>42537</v>
+      </c>
+      <c r="B3" s="2">
         <v>57956</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>327143</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>136</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>26053</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>4659</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>944</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>1257</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <v>25511</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>9779</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>449</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <v>39</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <v>10276</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>42932</v>
-      </c>
-      <c r="B4">
+        <v>42567</v>
+      </c>
+      <c r="B4" s="2">
         <v>59701</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>349923</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>144</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>23712</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>5109</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>1072</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>1290</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>26957</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>12827</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>565</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>41</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>13444</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>42963</v>
-      </c>
-      <c r="B5">
+        <v>42598</v>
+      </c>
+      <c r="B5" s="2">
         <v>57634</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>317452</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>131</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>24435</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>4159</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>1072</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>1210</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>23988</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <v>13318</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>475</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>36</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <v>13809</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>42994</v>
-      </c>
-      <c r="B6">
+        <v>42629</v>
+      </c>
+      <c r="B6" s="2">
         <v>56500</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>322395</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>133</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>23162</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>4010</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>815</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>1439</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <v>23982</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <v>13155</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>554</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>48</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <v>13773</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43024</v>
-      </c>
-      <c r="B7">
+        <v>42659</v>
+      </c>
+      <c r="B7" s="2">
         <v>57057</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>311744</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>128</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>25956</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>4155</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>799</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>1287</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <v>23280</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>11944</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>446</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>34</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <v>12441</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>43055</v>
-      </c>
-      <c r="B8">
+        <v>42690</v>
+      </c>
+      <c r="B8" s="2">
         <v>51603</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>229936</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>95</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>28530</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>3599</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>439</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>850</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>17640</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>9428</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>341</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>23</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <v>9782</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>43085</v>
-      </c>
-      <c r="B9">
+        <v>42720</v>
+      </c>
+      <c r="B9" s="2">
         <v>54241</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>241561</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>100</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>25754</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>4580</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>611</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>699</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <v>19998</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <v>12457</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>505</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <v>34</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <v>12996</v>
       </c>
     </row>
@@ -790,47 +1966,48 @@
       <c r="A10" s="1">
         <v>42752</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>55352</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>265895</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>109.85</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>28127</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>4514</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>599</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>927</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <v>21438</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <v>10215</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <v>255</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <v>19</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="2">
         <v>10473</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>